--- a/JSON_TEST/Assets/Resources/Data/SkillData.xlsx
+++ b/JSON_TEST/Assets/Resources/Data/SkillData.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">MP</t>
   </si>
   <si>
-    <t xml:space="preserve">불덩이를 발사합니다.\n{0}+{1}*{2} 의 데미지를 줍니다.</t>
+    <t xml:space="preserve">불덩이를 발사합니다.\n{0}의 데미지를 줍니다.</t>
   </si>
   <si>
     <t xml:space="preserve">UI/Icon/Potion/MpPotion</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">Hp의 최대치가 {0}+{1}*{2} 증가합니다.</t>
+    <t xml:space="preserve">Hp의 최대치가 {0}증가합니다.</t>
   </si>
   <si>
     <t xml:space="preserve">UI/Icon/Weapons/Bow</t>
@@ -208,8 +208,8 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/JSON_TEST/Assets/Resources/Data/SkillData.xlsx
+++ b/JSON_TEST/Assets/Resources/Data/SkillData.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Index</t>
   </si>
   <si>
-    <t xml:space="preserve">Type</t>
+    <t xml:space="preserve">skillType</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -86,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
@@ -109,6 +109,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -168,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,10 +185,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,8 +219,8 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,13 +240,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -247,68 +258,68 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
